--- a/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C2D743-4735-4609-A164-CD5B02E2FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B96D49-0FE7-4001-87C5-C4FA88AE7712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C64B94-7453-493D-B0C6-9D8EA9BFE3AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59FA2498-5A69-407B-8DF8-0951EA00605A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="792">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,7 +101,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>2,5%</t>
@@ -116,7 +116,7 @@
     <t>1,2%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>84,45%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -140,10 +140,10 @@
     <t>94,68%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,2233 +155,2266 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CF116A-44B2-4A6C-A4FF-A4E9D816AFB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E69C8C-3604-46DB-9EE6-D78B2DBB3EBB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3401,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3410,13 +3443,13 @@
         <v>3092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3464,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -3446,13 +3479,13 @@
         <v>76803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -3461,13 +3494,13 @@
         <v>126793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3535,13 +3568,13 @@
         <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3550,13 +3583,13 @@
         <v>1083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3565,13 +3598,13 @@
         <v>1913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3619,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3601,13 +3634,13 @@
         <v>4409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3616,13 +3649,13 @@
         <v>7019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3670,13 @@
         <v>51682</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -3652,13 +3685,13 @@
         <v>68822</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3667,13 +3700,13 @@
         <v>120504</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3762,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3741,13 +3774,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3756,13 +3789,13 @@
         <v>4111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3771,13 +3804,13 @@
         <v>4979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3825,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3807,13 +3840,13 @@
         <v>4157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3822,13 +3855,13 @@
         <v>8438</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3876,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3858,13 +3891,13 @@
         <v>32978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -3873,13 +3906,13 @@
         <v>57176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3968,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3947,13 +3980,13 @@
         <v>849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3962,13 +3995,13 @@
         <v>3693</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3977,13 +4010,13 @@
         <v>4542</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4031,13 @@
         <v>1892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4013,13 +4046,13 @@
         <v>1171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4028,13 +4061,13 @@
         <v>3063</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4082,13 @@
         <v>44455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -4064,13 +4097,13 @@
         <v>65445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -4079,13 +4112,13 @@
         <v>109900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4174,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4153,13 +4186,13 @@
         <v>2610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -4168,13 +4201,13 @@
         <v>4850</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -4183,13 +4216,13 @@
         <v>7459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4237,13 @@
         <v>3525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4219,13 +4252,13 @@
         <v>2198</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4234,13 +4267,13 @@
         <v>5722</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4288,13 @@
         <v>99794</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>110</v>
@@ -4270,13 +4303,13 @@
         <v>110074</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -4285,13 +4318,13 @@
         <v>209867</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4380,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4359,13 +4392,13 @@
         <v>2644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -4374,13 +4407,13 @@
         <v>6088</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4392,10 +4425,10 @@
         <v>39</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4443,13 @@
         <v>5651</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -4425,13 +4458,13 @@
         <v>14957</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -4440,13 +4473,13 @@
         <v>20608</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4494,13 @@
         <v>103598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -4476,13 +4509,13 @@
         <v>132180</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>233</v>
@@ -4491,13 +4524,13 @@
         <v>235778</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4598,13 @@
         <v>10539</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -4580,13 +4613,13 @@
         <v>28788</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -4595,13 +4628,13 @@
         <v>39327</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4649,13 @@
         <v>20724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -4631,13 +4664,13 @@
         <v>33708</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -4646,13 +4679,13 @@
         <v>54432</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4700,13 @@
         <v>471204</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>603</v>
@@ -4682,13 +4715,13 @@
         <v>614346</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>1092</v>
@@ -4697,13 +4730,13 @@
         <v>1085550</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +4792,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4783,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EB6389-401E-4359-B10C-EA6E22A86BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5053AD49-1B5B-43D9-B964-95C907329831}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4905,39 +4938,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,39 +4983,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,39 +5028,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,39 +5073,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5122,13 @@
         <v>5446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5104,13 +5137,13 @@
         <v>6699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5119,13 +5152,13 @@
         <v>12145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5173,13 @@
         <v>5424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5155,13 +5188,13 @@
         <v>12889</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5170,13 +5203,13 @@
         <v>18313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5224,13 @@
         <v>68333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5206,13 +5239,13 @@
         <v>82505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5221,13 +5254,13 @@
         <v>150838</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5328,13 @@
         <v>5057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5310,13 +5343,13 @@
         <v>8725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5325,13 +5358,13 @@
         <v>13783</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5379,13 @@
         <v>1049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5361,13 +5394,13 @@
         <v>8447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5376,13 +5409,13 @@
         <v>9495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5430,13 @@
         <v>49636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5412,13 +5445,13 @@
         <v>62796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5427,13 +5460,13 @@
         <v>112432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5522,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5501,13 +5534,13 @@
         <v>5019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5519,10 +5552,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5531,13 +5564,13 @@
         <v>11611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5585,13 @@
         <v>8772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5567,13 +5600,13 @@
         <v>18206</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -5582,13 +5615,13 @@
         <v>26979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5636,13 @@
         <v>94516</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -5618,13 +5651,13 @@
         <v>109670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -5633,13 +5666,13 @@
         <v>204187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,7 +5728,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5707,13 +5740,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5722,13 +5755,13 @@
         <v>6072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5737,13 +5770,13 @@
         <v>7228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5791,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5773,13 +5806,13 @@
         <v>2099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5788,13 +5821,13 @@
         <v>5391</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5842,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5824,13 +5857,13 @@
         <v>41684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5839,13 +5872,13 @@
         <v>68848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,7 +5934,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5913,13 +5946,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5928,13 +5961,13 @@
         <v>5387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5943,13 +5976,13 @@
         <v>7531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5997,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5979,13 +6012,13 @@
         <v>8446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5994,13 +6027,13 @@
         <v>10596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6048,13 @@
         <v>47462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6030,13 +6063,13 @@
         <v>56380</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -6045,13 +6078,13 @@
         <v>103842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6140,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6152,13 @@
         <v>3058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6134,13 +6167,13 @@
         <v>6938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6149,13 +6182,13 @@
         <v>9995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6203,13 @@
         <v>3039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6185,13 +6218,13 @@
         <v>15507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6200,13 +6233,13 @@
         <v>18546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6254,13 @@
         <v>106166</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>109</v>
@@ -6236,13 +6269,13 @@
         <v>119518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6251,13 +6284,13 @@
         <v>225684</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +6346,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6325,13 +6358,13 @@
         <v>1154</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6340,13 +6373,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6355,13 +6388,13 @@
         <v>6709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6409,13 @@
         <v>6717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>168</v>
+        <v>388</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6391,13 +6424,13 @@
         <v>10140</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -6406,13 +6439,13 @@
         <v>16857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6460,13 @@
         <v>112880</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -6442,13 +6475,13 @@
         <v>148722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M34" s="7">
         <v>237</v>
@@ -6457,13 +6490,13 @@
         <v>261603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6564,13 @@
         <v>23035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -6546,13 +6579,13 @@
         <v>45967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -6561,13 +6594,13 @@
         <v>69002</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6615,13 @@
         <v>30443</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6597,13 +6630,13 @@
         <v>75733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>407</v>
+        <v>290</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6612,13 +6645,13 @@
         <v>106177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6666,13 @@
         <v>506158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H38" s="7">
         <v>583</v>
@@ -6648,13 +6681,13 @@
         <v>621275</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6663,13 +6696,13 @@
         <v>1127433</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>420</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,7 +6758,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6749,7 +6782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC497691-7828-4031-9E09-D853D9D95A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7866CA9-1CD8-4A4C-A77F-A303899F522B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6766,7 +6799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6873,13 +6906,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6888,13 +6921,13 @@
         <v>3417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6903,13 +6936,13 @@
         <v>5848</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6957,13 @@
         <v>4100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6939,13 +6972,13 @@
         <v>6397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6954,13 +6987,13 @@
         <v>10497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +7008,13 @@
         <v>32364</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -6990,13 +7023,13 @@
         <v>39577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -7005,13 +7038,13 @@
         <v>71942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7094,13 +7127,13 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -7109,13 +7142,13 @@
         <v>3972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7163,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7145,13 +7178,13 @@
         <v>6713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7160,13 +7193,13 @@
         <v>9215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7214,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -7196,13 +7229,13 @@
         <v>104543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -7211,13 +7244,13 @@
         <v>189335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7300,13 +7333,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7315,13 +7348,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7369,13 @@
         <v>3639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7351,13 +7384,13 @@
         <v>2467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -7366,13 +7399,13 @@
         <v>6105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7420,13 @@
         <v>59907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -7402,13 +7435,13 @@
         <v>72953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7417,13 +7450,13 @@
         <v>132860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,7 +7512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7491,13 +7524,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7506,13 +7539,13 @@
         <v>3422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7521,13 +7554,13 @@
         <v>4267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7575,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7557,13 +7590,13 @@
         <v>3527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7572,13 +7605,13 @@
         <v>6137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7626,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7608,13 +7641,13 @@
         <v>84625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -7623,13 +7656,13 @@
         <v>145882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,7 +7718,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7703,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7712,13 +7745,13 @@
         <v>909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7727,13 +7760,13 @@
         <v>909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7763,13 +7796,13 @@
         <v>5440</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7778,7 +7811,7 @@
         <v>5440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>254</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>515</v>
@@ -7814,13 +7847,13 @@
         <v>44183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7829,13 +7862,13 @@
         <v>86263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7924,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7903,13 +7936,13 @@
         <v>4351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>525</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7918,13 +7951,13 @@
         <v>5834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>528</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7933,13 +7966,13 @@
         <v>10185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7987,13 @@
         <v>2444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7969,13 +8002,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7984,13 +8017,13 @@
         <v>4897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8038,13 @@
         <v>41651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -8020,13 +8053,13 @@
         <v>59101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -8035,13 +8068,13 @@
         <v>100752</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8130,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8142,13 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>545</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>546</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -8124,13 +8157,13 @@
         <v>6670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8139,13 +8172,13 @@
         <v>9385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8193,13 @@
         <v>4790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8175,13 +8208,13 @@
         <v>15560</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8190,13 +8223,13 @@
         <v>20350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8244,13 @@
         <v>104679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>557</v>
+        <v>258</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -8226,13 +8259,13 @@
         <v>125396</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -8241,13 +8274,13 @@
         <v>230075</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>564</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>565</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8336,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8321,7 +8354,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8336,7 +8369,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8351,7 +8384,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8366,13 +8399,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>39</v>
+        <v>572</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -8381,13 +8414,13 @@
         <v>6054</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -8396,13 +8429,13 @@
         <v>6921</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8417,10 +8450,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -8432,13 +8465,13 @@
         <v>170243</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M34" s="7">
         <v>277</v>
@@ -8447,13 +8480,13 @@
         <v>303544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8554,13 @@
         <v>10343</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -8536,13 +8569,13 @@
         <v>28701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -8551,13 +8584,13 @@
         <v>39044</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>590</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>591</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,10 +8608,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8587,13 +8620,13 @@
         <v>48610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>169</v>
+        <v>427</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -8602,13 +8635,13 @@
         <v>69562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>491</v>
+        <v>598</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,13 +8656,13 @@
         <v>560033</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H38" s="7">
         <v>594</v>
@@ -8638,13 +8671,13 @@
         <v>700620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M38" s="7">
         <v>1185</v>
@@ -8653,13 +8686,13 @@
         <v>1260653</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>446</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,7 +8748,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8739,7 +8772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F1BAE-25B7-41FF-B2B1-9903A7BB764F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B318A76-CEB2-42DC-A6A1-2153E6199260}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8756,7 +8789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8869,7 +8902,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8878,13 +8911,13 @@
         <v>3156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>609</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8893,13 +8926,13 @@
         <v>3156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,13 +8947,13 @@
         <v>5100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>613</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -8929,13 +8962,13 @@
         <v>13586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -8944,13 +8977,13 @@
         <v>18685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,13 +8998,13 @@
         <v>46820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -8980,13 +9013,13 @@
         <v>45478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
@@ -8995,13 +9028,13 @@
         <v>92298</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,13 +9102,13 @@
         <v>1837</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -9084,13 +9117,13 @@
         <v>12423</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -9099,13 +9132,13 @@
         <v>14261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,13 +9153,13 @@
         <v>5801</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -9135,13 +9168,13 @@
         <v>17804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -9150,13 +9183,13 @@
         <v>23605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>644</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,13 +9204,13 @@
         <v>78676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -9186,13 +9219,13 @@
         <v>111129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -9201,13 +9234,13 @@
         <v>189805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9275,13 +9308,13 @@
         <v>4537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>656</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -9290,13 +9323,13 @@
         <v>4294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9305,13 +9338,13 @@
         <v>8831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9326,13 +9359,13 @@
         <v>3316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -9341,13 +9374,13 @@
         <v>8630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -9356,13 +9389,13 @@
         <v>11946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9377,13 +9410,13 @@
         <v>69748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>663</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
@@ -9392,13 +9425,13 @@
         <v>82027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -9407,13 +9440,13 @@
         <v>151775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9469,7 +9502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9481,13 +9514,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -9496,13 +9529,13 @@
         <v>4793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>676</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -9511,13 +9544,13 @@
         <v>5375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>679</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9532,13 +9565,13 @@
         <v>4563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -9547,13 +9580,13 @@
         <v>6781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>687</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -9562,13 +9595,13 @@
         <v>11344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>689</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9583,13 +9616,13 @@
         <v>73661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>607</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -9598,13 +9631,13 @@
         <v>98881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="M18" s="7">
         <v>339</v>
@@ -9613,13 +9646,13 @@
         <v>172542</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>697</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9675,7 +9708,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9693,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>698</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9702,13 +9735,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>699</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9717,13 +9750,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>702</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9738,13 +9771,13 @@
         <v>4430</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -9753,13 +9786,13 @@
         <v>8817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -9768,13 +9801,13 @@
         <v>13248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9789,13 +9822,13 @@
         <v>33901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -9804,13 +9837,13 @@
         <v>55292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -9819,13 +9852,13 @@
         <v>89194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9881,7 +9914,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9893,13 +9926,13 @@
         <v>1998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9908,13 +9941,13 @@
         <v>5552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -9923,13 +9956,13 @@
         <v>7549</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>720</v>
+        <v>226</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9944,13 +9977,13 @@
         <v>2642</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -9959,13 +9992,13 @@
         <v>5152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -9974,13 +10007,13 @@
         <v>7795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9995,13 +10028,13 @@
         <v>58543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>739</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>740</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
@@ -10010,13 +10043,13 @@
         <v>59149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="M26" s="7">
         <v>272</v>
@@ -10025,13 +10058,13 @@
         <v>117693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,7 +10120,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10105,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -10114,13 +10147,13 @@
         <v>9123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>720</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>737</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -10129,13 +10162,13 @@
         <v>9123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10150,13 +10183,13 @@
         <v>5937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -10165,13 +10198,13 @@
         <v>10308</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>750</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -10180,13 +10213,13 @@
         <v>16245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>742</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10201,13 +10234,13 @@
         <v>124903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>224</v>
+        <v>753</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -10216,13 +10249,13 @@
         <v>238757</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>747</v>
+        <v>398</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -10231,13 +10264,13 @@
         <v>363660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,7 +10326,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10311,7 +10344,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10320,7 +10353,7 @@
         <v>1564</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
@@ -10335,13 +10368,13 @@
         <v>1564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>742</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10356,13 +10389,13 @@
         <v>1573</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>737</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>753</v>
+        <v>589</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -10371,13 +10404,13 @@
         <v>13490</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>764</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -10386,13 +10419,13 @@
         <v>15063</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10407,13 +10440,13 @@
         <v>168354</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="H34" s="7">
         <v>324</v>
@@ -10422,13 +10455,13 @@
         <v>207988</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="M34" s="7">
         <v>556</v>
@@ -10437,13 +10470,13 @@
         <v>376342</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10511,13 +10544,13 @@
         <v>8953</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>425</v>
+        <v>776</v>
       </c>
       <c r="H36" s="7">
         <v>72</v>
@@ -10526,13 +10559,13 @@
         <v>42277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -10541,13 +10574,13 @@
         <v>51230</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,13 +10595,13 @@
         <v>33363</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
@@ -10577,13 +10610,13 @@
         <v>84569</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>772</v>
+        <v>557</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="M37" s="7">
         <v>206</v>
@@ -10592,13 +10625,13 @@
         <v>117931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10646,13 @@
         <v>654605</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>125</v>
+        <v>785</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H38" s="7">
         <v>1478</v>
@@ -10628,13 +10661,13 @@
         <v>898703</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>779</v>
+        <v>335</v>
       </c>
       <c r="M38" s="7">
         <v>2440</v>
@@ -10643,13 +10676,13 @@
         <v>1553308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>602</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10705,7 +10738,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B96D49-0FE7-4001-87C5-C4FA88AE7712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3551C465-0A4C-4557-8CEA-C5A9C204DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59FA2498-5A69-407B-8DF8-0951EA00605A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F04C769-DDEC-49AE-9108-BC10CE393303}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="790">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,22 +101,22 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>12,51%</t>
+    <t>12,93%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,45%</t>
+    <t>81,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,16 +134,16 @@
     <t>94,52%</t>
   </si>
   <si>
-    <t>83,07%</t>
+    <t>83,22%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,7 +155,7 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -164,16 +164,16 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>9,07%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -185,7 +185,7 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>8,79%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -194,2227 +194,2221 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,64%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>86,11%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>87,08%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E69C8C-3604-46DB-9EE6-D78B2DBB3EBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9409088-C335-493A-AE95-0C9AC3A91D37}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3622,10 +3616,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3634,13 +3628,13 @@
         <v>4409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3649,13 +3643,13 @@
         <v>7019</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3664,13 @@
         <v>51682</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -3685,13 +3679,13 @@
         <v>68822</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -3700,13 +3694,13 @@
         <v>120504</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3756,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3774,13 +3768,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3789,13 +3783,13 @@
         <v>4111</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3804,13 +3798,13 @@
         <v>4979</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3840,13 +3834,13 @@
         <v>4157</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3855,13 +3849,13 @@
         <v>8438</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3891,13 +3885,13 @@
         <v>32978</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -3906,13 +3900,13 @@
         <v>57176</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3962,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3980,13 +3974,13 @@
         <v>849</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3995,13 +3989,13 @@
         <v>3693</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4010,13 +4004,13 @@
         <v>4542</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4025,13 @@
         <v>1892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4046,13 +4040,13 @@
         <v>1171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4061,13 +4055,13 @@
         <v>3063</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>44455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -4097,13 +4091,13 @@
         <v>65445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -4112,13 +4106,13 @@
         <v>109900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4168,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4186,13 +4180,13 @@
         <v>2610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -4201,13 +4195,13 @@
         <v>4850</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -4216,13 +4210,13 @@
         <v>7459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4231,13 @@
         <v>3525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4252,13 +4246,13 @@
         <v>2198</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4267,13 +4261,13 @@
         <v>5722</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4282,13 @@
         <v>99794</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>110</v>
@@ -4303,13 +4297,13 @@
         <v>110074</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -4318,13 +4312,13 @@
         <v>209867</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4374,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4392,13 +4386,13 @@
         <v>2644</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -4407,13 +4401,13 @@
         <v>6088</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4425,10 +4419,10 @@
         <v>39</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4437,13 @@
         <v>5651</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -4458,13 +4452,13 @@
         <v>14957</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -4473,13 +4467,13 @@
         <v>20608</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>103598</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -4509,13 +4503,13 @@
         <v>132180</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>233</v>
@@ -4524,13 +4518,13 @@
         <v>235778</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4592,13 @@
         <v>10539</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -4613,13 +4607,13 @@
         <v>28788</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -4628,13 +4622,13 @@
         <v>39327</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4643,13 @@
         <v>20724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -4664,13 +4658,13 @@
         <v>33708</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -4679,13 +4673,13 @@
         <v>54432</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4694,13 @@
         <v>471204</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>603</v>
@@ -4715,13 +4709,13 @@
         <v>614346</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>1092</v>
@@ -4730,13 +4724,13 @@
         <v>1085550</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4786,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5053AD49-1B5B-43D9-B964-95C907329831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA82096F-7863-4286-879B-F741B76FE969}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4833,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4938,39 +4932,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,39 +4977,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,39 +5022,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,39 +5067,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5116,13 @@
         <v>5446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5137,13 +5131,13 @@
         <v>6699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5152,13 +5146,13 @@
         <v>12145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5167,13 @@
         <v>5424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5188,13 +5182,13 @@
         <v>12889</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5203,13 +5197,13 @@
         <v>18313</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5218,13 @@
         <v>68333</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5239,13 +5233,13 @@
         <v>82505</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5254,13 +5248,13 @@
         <v>150838</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5322,13 @@
         <v>5057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5343,13 +5337,13 @@
         <v>8725</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5358,13 +5352,13 @@
         <v>13783</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5373,13 @@
         <v>1049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5394,13 +5388,13 @@
         <v>8447</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5409,13 +5403,13 @@
         <v>9495</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>49636</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5445,13 +5439,13 @@
         <v>62796</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5460,13 +5454,13 @@
         <v>112432</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5528,13 @@
         <v>5019</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5552,10 +5546,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5564,13 +5558,13 @@
         <v>11611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5579,13 @@
         <v>8772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5600,13 +5594,13 @@
         <v>18206</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -5615,13 +5609,13 @@
         <v>26979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5630,13 @@
         <v>94516</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -5651,13 +5645,13 @@
         <v>109670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -5666,13 +5660,13 @@
         <v>204187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5722,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5740,13 +5734,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5755,13 +5749,13 @@
         <v>6072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5770,13 +5764,13 @@
         <v>7228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5785,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5806,13 +5800,13 @@
         <v>2099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5821,13 +5815,13 @@
         <v>5391</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5836,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5857,13 +5851,13 @@
         <v>41684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5872,13 +5866,13 @@
         <v>68848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,7 +5928,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5946,13 +5940,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5961,13 +5955,13 @@
         <v>5387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5976,13 +5970,13 @@
         <v>7531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5991,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6012,13 +6006,13 @@
         <v>8446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6027,13 +6021,13 @@
         <v>10596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6042,13 @@
         <v>47462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6063,13 +6057,13 @@
         <v>56380</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -6078,13 +6072,13 @@
         <v>103842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6134,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6152,13 +6146,13 @@
         <v>3058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6167,13 +6161,13 @@
         <v>6938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6182,13 +6176,13 @@
         <v>9995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,13 +6197,13 @@
         <v>3039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6218,13 +6212,13 @@
         <v>15507</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6233,13 +6227,13 @@
         <v>18546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6248,13 @@
         <v>106166</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>109</v>
@@ -6269,13 +6263,13 @@
         <v>119518</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6284,13 +6278,13 @@
         <v>225684</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,7 +6340,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6358,13 +6352,13 @@
         <v>1154</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6379,7 +6373,7 @@
         <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6388,13 +6382,13 @@
         <v>6709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6403,13 @@
         <v>6717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6424,13 +6418,13 @@
         <v>10140</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -6439,13 +6433,13 @@
         <v>16857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6454,13 @@
         <v>112880</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -6475,13 +6469,13 @@
         <v>148722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M34" s="7">
         <v>237</v>
@@ -6490,13 +6484,13 @@
         <v>261603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,10 +6558,10 @@
         <v>23035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>403</v>
+        <v>157</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>404</v>
@@ -6579,10 +6573,10 @@
         <v>45967</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>406</v>
@@ -6594,13 +6588,13 @@
         <v>69002</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>407</v>
+        <v>173</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>408</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6609,13 @@
         <v>30443</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6630,13 +6624,13 @@
         <v>75733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6645,13 +6639,13 @@
         <v>106177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6660,13 @@
         <v>506158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>419</v>
+        <v>104</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H38" s="7">
         <v>583</v>
@@ -6681,13 +6675,13 @@
         <v>621275</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6696,13 +6690,13 @@
         <v>1127433</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>425</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>177</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,7 +6752,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6782,7 +6776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7866CA9-1CD8-4A4C-A77F-A303899F522B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5255A384-D820-4CE6-A01B-5C14711B5F1E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6799,7 +6793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6906,13 +6900,13 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6921,13 +6915,13 @@
         <v>3417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6936,13 +6930,13 @@
         <v>5848</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6951,13 @@
         <v>4100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6972,13 +6966,13 @@
         <v>6397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6987,13 +6981,13 @@
         <v>10497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7002,13 @@
         <v>32364</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -7023,28 +7017,28 @@
         <v>39577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>71942</v>
+        <v>71941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7080,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -7118,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7127,13 +7121,13 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -7142,13 +7136,13 @@
         <v>3972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7157,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7178,13 +7172,13 @@
         <v>6713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7193,13 +7187,13 @@
         <v>9215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>462</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7208,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -7229,13 +7223,13 @@
         <v>104543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -7244,13 +7238,13 @@
         <v>189335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7318,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7333,13 +7327,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7348,13 +7342,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>470</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7363,13 @@
         <v>3639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>473</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7384,13 +7378,13 @@
         <v>2467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>475</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -7399,13 +7393,13 @@
         <v>6105</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7414,13 @@
         <v>59907</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -7435,10 +7429,10 @@
         <v>72953</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>485</v>
@@ -7524,13 +7518,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>489</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7539,13 +7533,13 @@
         <v>3422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7581,7 +7575,7 @@
         <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7590,13 +7584,13 @@
         <v>3527</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7605,13 +7599,13 @@
         <v>6137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7620,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7641,13 +7635,13 @@
         <v>84625</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -7656,13 +7650,13 @@
         <v>145882</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,7 +7712,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7736,7 +7730,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7745,13 +7739,13 @@
         <v>909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7760,13 +7754,13 @@
         <v>909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7781,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7811,7 +7805,7 @@
         <v>5440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>515</v>
@@ -7924,7 +7918,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7939,10 +7933,10 @@
         <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7951,13 +7945,13 @@
         <v>5834</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7966,13 +7960,13 @@
         <v>10185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>531</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7981,13 @@
         <v>2444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8002,13 +7996,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8017,13 +8011,13 @@
         <v>4897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8032,13 @@
         <v>41651</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -8053,7 +8047,7 @@
         <v>59101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>541</v>
@@ -8074,7 +8068,7 @@
         <v>544</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,7 +8124,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8142,10 +8136,10 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>547</v>
@@ -8196,10 +8190,10 @@
         <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8208,13 +8202,13 @@
         <v>15560</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8223,13 +8217,13 @@
         <v>20350</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8238,7 @@
         <v>104679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>258</v>
+        <v>561</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>562</v>
@@ -8274,13 +8268,13 @@
         <v>230075</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>332</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,7 +8330,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8354,7 +8348,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8369,7 +8363,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8384,7 +8378,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,13 +8393,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -8414,13 +8408,13 @@
         <v>6054</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -8429,13 +8423,13 @@
         <v>6921</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>577</v>
+        <v>470</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>578</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,10 +8444,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -8465,13 +8459,13 @@
         <v>170243</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M34" s="7">
         <v>277</v>
@@ -8480,13 +8474,13 @@
         <v>303544</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,13 +8548,13 @@
         <v>10343</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -8569,13 +8563,13 @@
         <v>28701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -8584,13 +8578,13 @@
         <v>39044</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,10 +8602,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>72</v>
+        <v>590</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>594</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8620,13 +8614,13 @@
         <v>48610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -8635,13 +8629,13 @@
         <v>69562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8650,13 @@
         <v>560033</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>601</v>
+        <v>304</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="H38" s="7">
         <v>594</v>
@@ -8671,13 +8665,13 @@
         <v>700620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M38" s="7">
         <v>1185</v>
@@ -8686,13 +8680,13 @@
         <v>1260653</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>446</v>
+        <v>600</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>606</v>
+        <v>398</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,7 +8742,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B318A76-CEB2-42DC-A6A1-2153E6199260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E53E34E-B6A5-4F84-AFDC-CC0B9F46542D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8789,7 +8783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8902,7 +8896,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8911,13 +8905,13 @@
         <v>3156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>605</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8926,13 +8920,13 @@
         <v>3156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>613</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,13 +8941,13 @@
         <v>5100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>609</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -8962,13 +8956,13 @@
         <v>13586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -8977,13 +8971,13 @@
         <v>18685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8998,13 +8992,13 @@
         <v>46820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -9013,13 +9007,13 @@
         <v>45478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
@@ -9028,13 +9022,13 @@
         <v>92298</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9102,13 +9096,13 @@
         <v>1837</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -9117,13 +9111,13 @@
         <v>12423</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>530</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -9132,13 +9126,13 @@
         <v>14261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>636</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,13 +9147,13 @@
         <v>5801</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>634</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -9168,13 +9162,13 @@
         <v>17804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -9183,13 +9177,13 @@
         <v>23605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>644</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9204,13 +9198,13 @@
         <v>78676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>646</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -9219,13 +9213,13 @@
         <v>111129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -9234,13 +9228,13 @@
         <v>189805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9302,13 @@
         <v>4537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -9326,10 +9320,10 @@
         <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>658</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9338,13 +9332,13 @@
         <v>8831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,10 +9356,10 @@
         <v>554</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -9374,13 +9368,13 @@
         <v>8630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -9389,13 +9383,13 @@
         <v>11946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9410,13 +9404,13 @@
         <v>69748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>662</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>669</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
@@ -9425,13 +9419,13 @@
         <v>82027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -9440,13 +9434,13 @@
         <v>151775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9514,13 +9508,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -9529,13 +9523,13 @@
         <v>4793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>679</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>673</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -9544,13 +9538,13 @@
         <v>5375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>682</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9565,13 +9559,13 @@
         <v>4563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>684</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -9580,13 +9574,13 @@
         <v>6781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -9595,13 +9589,13 @@
         <v>11344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>527</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9616,13 +9610,13 @@
         <v>73661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -9631,13 +9625,13 @@
         <v>98881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="M18" s="7">
         <v>339</v>
@@ -9646,13 +9640,13 @@
         <v>172542</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9708,7 +9702,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9726,7 +9720,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9735,13 +9729,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9750,13 +9744,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>702</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9771,13 +9765,13 @@
         <v>4430</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -9786,13 +9780,13 @@
         <v>8817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>708</v>
+        <v>406</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -9801,13 +9795,13 @@
         <v>13248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9822,13 +9816,13 @@
         <v>33901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -9837,13 +9831,13 @@
         <v>55292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -9852,13 +9846,13 @@
         <v>89194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9914,7 +9908,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9926,13 +9920,13 @@
         <v>1998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>723</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>724</v>
+        <v>243</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9941,13 +9935,13 @@
         <v>5552</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>727</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -9956,13 +9950,13 @@
         <v>7549</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>226</v>
+        <v>720</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9977,13 +9971,13 @@
         <v>2642</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>731</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -9992,13 +9986,13 @@
         <v>5152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -10007,13 +10001,13 @@
         <v>7795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10028,13 +10022,13 @@
         <v>58543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
@@ -10043,13 +10037,13 @@
         <v>59149</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="M26" s="7">
         <v>272</v>
@@ -10058,13 +10052,13 @@
         <v>117693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>744</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>745</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10120,7 +10114,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10138,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -10147,13 +10141,13 @@
         <v>9123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>737</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -10162,13 +10156,13 @@
         <v>9123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10183,13 +10177,13 @@
         <v>5937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>740</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>749</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -10198,13 +10192,13 @@
         <v>10308</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>742</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -10213,13 +10207,13 @@
         <v>16245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>744</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10234,13 +10228,13 @@
         <v>124903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -10249,13 +10243,13 @@
         <v>238757</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>398</v>
+        <v>750</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -10264,13 +10258,13 @@
         <v>363660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10326,7 +10320,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10344,7 +10338,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>759</v>
+        <v>387</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10359,7 +10353,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -10368,13 +10362,13 @@
         <v>1564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10392,10 +10386,10 @@
         <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -10404,13 +10398,13 @@
         <v>13490</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -10419,13 +10413,13 @@
         <v>15063</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>686</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10440,13 +10434,13 @@
         <v>168354</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H34" s="7">
         <v>324</v>
@@ -10455,13 +10449,13 @@
         <v>207988</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M34" s="7">
         <v>556</v>
@@ -10470,13 +10464,13 @@
         <v>376342</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10544,13 +10538,13 @@
         <v>8953</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>776</v>
+        <v>425</v>
       </c>
       <c r="H36" s="7">
         <v>72</v>
@@ -10559,13 +10553,13 @@
         <v>42277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>593</v>
+        <v>771</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -10574,13 +10568,13 @@
         <v>51230</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>774</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>704</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10595,13 +10589,13 @@
         <v>33363</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
@@ -10610,13 +10604,13 @@
         <v>84569</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>557</v>
+        <v>779</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M37" s="7">
         <v>206</v>
@@ -10625,13 +10619,13 @@
         <v>117931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>387</v>
+        <v>781</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10646,13 +10640,13 @@
         <v>654605</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>787</v>
       </c>
       <c r="H38" s="7">
         <v>1478</v>
@@ -10661,13 +10655,13 @@
         <v>898703</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>335</v>
+        <v>735</v>
       </c>
       <c r="M38" s="7">
         <v>2440</v>
@@ -10676,13 +10670,13 @@
         <v>1553308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10738,7 +10732,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3551C465-0A4C-4557-8CEA-C5A9C204DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC53AE5B-285D-4327-BD54-0BFBAC9BA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F04C769-DDEC-49AE-9108-BC10CE393303}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40023F2D-2EBD-49B3-A2FD-79EEB375E121}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="781">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,2314 +101,2287 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>18,01%</t>
+    <t>15,53%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>12,93%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>6,34%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9409088-C335-493A-AE95-0C9AC3A91D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667E0E29-248E-4F6C-AD11-7790ECE675DC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3428,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3437,13 +3410,13 @@
         <v>3092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,10 +3431,10 @@
         <v>49991</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -3473,13 +3446,13 @@
         <v>76803</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -3488,13 +3461,13 @@
         <v>126793</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3523,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3535,13 @@
         <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3577,13 +3550,13 @@
         <v>1083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3592,13 +3565,13 @@
         <v>1913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3586,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3628,10 +3601,10 @@
         <v>4409</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>93</v>
@@ -3774,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3783,13 +3756,13 @@
         <v>4111</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3798,13 +3771,13 @@
         <v>4979</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3792,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3834,13 +3807,13 @@
         <v>4157</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3849,10 +3822,10 @@
         <v>8438</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>122</v>
@@ -4055,13 +4028,13 @@
         <v>3063</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4049,10 @@
         <v>44455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>149</v>
@@ -4112,7 +4085,7 @@
         <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,7 +4141,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4180,13 +4153,13 @@
         <v>2610</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -4195,13 +4168,13 @@
         <v>4850</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -4210,13 +4183,13 @@
         <v>7459</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4204,13 @@
         <v>3525</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4246,13 +4219,13 @@
         <v>2198</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4261,13 +4234,13 @@
         <v>5722</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4255,13 @@
         <v>99794</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>110</v>
@@ -4297,13 +4270,13 @@
         <v>110074</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>211</v>
@@ -4312,13 +4285,13 @@
         <v>209867</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4347,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4359,13 @@
         <v>2644</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -4401,13 +4374,13 @@
         <v>6088</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4419,10 +4392,10 @@
         <v>39</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4410,13 @@
         <v>5651</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -4452,13 +4425,13 @@
         <v>14957</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -4467,13 +4440,13 @@
         <v>20608</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4461,13 @@
         <v>103598</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -4503,13 +4476,13 @@
         <v>132180</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M34" s="7">
         <v>233</v>
@@ -4518,13 +4491,13 @@
         <v>235778</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4565,13 @@
         <v>10539</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -4607,13 +4580,13 @@
         <v>28788</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -4622,13 +4595,13 @@
         <v>39327</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4616,13 @@
         <v>20724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -4658,13 +4631,13 @@
         <v>33708</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -4673,13 +4646,13 @@
         <v>54432</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4667,13 @@
         <v>471204</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>603</v>
@@ -4709,13 +4682,13 @@
         <v>614346</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>1092</v>
@@ -4724,13 +4697,13 @@
         <v>1085550</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4759,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +4783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA82096F-7863-4286-879B-F741B76FE969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C67F9D-4A96-4861-866F-9FD75260347D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4827,7 +4800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4932,39 +4905,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,39 +4950,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,39 +4995,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,39 +5040,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5089,13 @@
         <v>5446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5131,13 +5104,13 @@
         <v>6699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5146,13 +5119,13 @@
         <v>12145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5140,13 @@
         <v>5424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5182,13 +5155,13 @@
         <v>12889</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5197,13 +5170,13 @@
         <v>18313</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5191,13 @@
         <v>68333</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5233,13 +5206,13 @@
         <v>82505</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5248,13 +5221,13 @@
         <v>150838</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5295,13 @@
         <v>5057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5337,13 +5310,13 @@
         <v>8725</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5352,13 +5325,13 @@
         <v>13783</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5346,13 @@
         <v>1049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5388,13 +5361,13 @@
         <v>8447</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5403,13 +5376,13 @@
         <v>9495</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5397,13 @@
         <v>49636</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5439,13 +5412,13 @@
         <v>62796</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5454,13 +5427,13 @@
         <v>112432</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,7 +5489,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5528,13 +5501,13 @@
         <v>5019</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5546,10 +5519,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5558,10 +5531,10 @@
         <v>11611</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>292</v>
@@ -5636,7 +5609,7 @@
         <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -5645,13 +5618,13 @@
         <v>109670</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -5660,13 +5633,13 @@
         <v>204187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>58</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5707,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5749,13 +5722,13 @@
         <v>6072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5764,13 +5737,13 @@
         <v>7228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5758,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5800,13 +5773,13 @@
         <v>2099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5815,13 +5788,13 @@
         <v>5391</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5809,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5851,13 +5824,13 @@
         <v>41684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5866,13 +5839,13 @@
         <v>68848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5913,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5955,13 +5928,13 @@
         <v>5387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5970,13 +5943,13 @@
         <v>7531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5964,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6006,13 +5979,13 @@
         <v>8446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6021,13 +5994,13 @@
         <v>10596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6015,13 @@
         <v>47462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6057,13 +6030,13 @@
         <v>56380</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -6072,13 +6045,13 @@
         <v>103842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6107,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6146,13 +6119,13 @@
         <v>3058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6161,13 +6134,13 @@
         <v>6938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6176,13 +6149,13 @@
         <v>9995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6170,13 @@
         <v>3039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6212,13 +6185,13 @@
         <v>15507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6227,13 +6200,13 @@
         <v>18546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6221,13 @@
         <v>106166</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H30" s="7">
         <v>109</v>
@@ -6263,13 +6236,13 @@
         <v>119518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6278,13 +6251,13 @@
         <v>225684</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,7 +6313,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6352,13 +6325,13 @@
         <v>1154</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6367,13 +6340,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6382,13 +6355,13 @@
         <v>6709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6376,13 @@
         <v>6717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6418,13 +6391,13 @@
         <v>10140</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>96</v>
+        <v>387</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -6433,13 +6406,13 @@
         <v>16857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6427,13 @@
         <v>112880</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -6469,13 +6442,13 @@
         <v>148722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M34" s="7">
         <v>237</v>
@@ -6484,13 +6457,13 @@
         <v>261603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6531,13 @@
         <v>23035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -6573,13 +6546,13 @@
         <v>45967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -6588,13 +6561,13 @@
         <v>69002</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6582,13 @@
         <v>30443</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>407</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6624,13 +6597,13 @@
         <v>75733</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6639,13 +6612,13 @@
         <v>106177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>413</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,13 +6633,13 @@
         <v>506158</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H38" s="7">
         <v>583</v>
@@ -6675,13 +6648,13 @@
         <v>621275</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6690,10 +6663,10 @@
         <v>1127433</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>420</v>
@@ -6752,7 +6725,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6776,7 +6749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5255A384-D820-4CE6-A01B-5C14711B5F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B102B7-97F3-4243-8A3B-9E9722A1668E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6900,7 +6873,7 @@
         <v>2432</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>422</v>
@@ -6930,7 +6903,7 @@
         <v>5848</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>427</v>
@@ -6954,10 +6927,10 @@
         <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6966,10 +6939,10 @@
         <v>6397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>433</v>
@@ -7008,7 +6981,7 @@
         <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -7017,28 +6990,28 @@
         <v>39577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>71941</v>
+        <v>71942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,7 +7053,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -7112,7 +7085,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7121,13 +7094,13 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -7136,13 +7109,13 @@
         <v>3972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7130,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7172,10 +7145,10 @@
         <v>6713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>454</v>
@@ -7190,10 +7163,10 @@
         <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,10 +7303,10 @@
         <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7342,7 +7315,7 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>470</v>
@@ -7366,10 +7339,10 @@
         <v>472</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7378,13 +7351,13 @@
         <v>2467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -7393,13 +7366,13 @@
         <v>6105</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7387,13 @@
         <v>59907</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -7429,13 +7402,13 @@
         <v>72953</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7444,13 +7417,13 @@
         <v>132860</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,7 +7479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7518,13 +7491,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7533,13 +7506,13 @@
         <v>3422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7548,13 +7521,13 @@
         <v>4267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7542,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7584,13 +7557,13 @@
         <v>3527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7599,13 +7572,13 @@
         <v>6137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7593,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7635,13 +7608,13 @@
         <v>84625</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -7650,13 +7623,13 @@
         <v>145882</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7745,7 +7718,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7754,13 +7727,13 @@
         <v>909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7790,13 +7763,13 @@
         <v>5440</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7805,7 +7778,7 @@
         <v>5440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>515</v>
@@ -7841,13 +7814,13 @@
         <v>44183</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7856,13 +7829,13 @@
         <v>86263</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7903,13 @@
         <v>4351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7945,13 +7918,13 @@
         <v>5834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>354</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -7960,13 +7933,13 @@
         <v>10185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>525</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7954,13 @@
         <v>2444</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7996,13 +7969,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8011,13 +7984,13 @@
         <v>4897</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8005,13 @@
         <v>41651</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -8047,13 +8020,13 @@
         <v>59101</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -8062,13 +8035,13 @@
         <v>100752</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8097,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8136,13 +8109,13 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -8151,13 +8124,13 @@
         <v>6670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8166,13 +8139,13 @@
         <v>9385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8160,13 @@
         <v>4790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8205,10 +8178,10 @@
         <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8217,13 +8190,13 @@
         <v>20350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8211,13 @@
         <v>104679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -8253,13 +8226,13 @@
         <v>125396</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -8268,13 +8241,13 @@
         <v>230075</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>259</v>
+        <v>563</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,7 +8303,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8348,7 +8321,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8363,7 +8336,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8378,7 +8351,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8393,13 +8366,13 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>573</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -8408,13 +8381,13 @@
         <v>6054</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>576</v>
+        <v>300</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -8423,13 +8396,13 @@
         <v>6921</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>470</v>
+        <v>573</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>222</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8444,10 +8417,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -8459,13 +8432,13 @@
         <v>170243</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="M34" s="7">
         <v>277</v>
@@ -8474,13 +8447,13 @@
         <v>303544</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,13 +8521,13 @@
         <v>10343</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -8581,10 +8554,10 @@
         <v>589</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>449</v>
+        <v>590</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>294</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,10 +8575,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8614,13 +8587,13 @@
         <v>48610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -8629,13 +8602,13 @@
         <v>69562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>594</v>
+        <v>491</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8650,13 +8623,13 @@
         <v>560033</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>304</v>
+        <v>598</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="H38" s="7">
         <v>594</v>
@@ -8665,13 +8638,13 @@
         <v>700620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
         <v>1185</v>
@@ -8680,13 +8653,13 @@
         <v>1260653</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>398</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,7 +8715,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E53E34E-B6A5-4F84-AFDC-CC0B9F46542D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5C1E0E-1819-41D0-AD46-74F7F912B0E6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8783,7 +8756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8896,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8905,13 +8878,13 @@
         <v>3156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8920,13 +8893,13 @@
         <v>3156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>608</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8914,13 @@
         <v>5100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -8956,13 +8929,13 @@
         <v>13586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -8971,13 +8944,13 @@
         <v>18685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8992,13 +8965,13 @@
         <v>46820</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
@@ -9007,13 +8980,13 @@
         <v>45478</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
@@ -9022,13 +8995,13 @@
         <v>92298</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,13 +9069,13 @@
         <v>1837</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>628</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -9111,13 +9084,13 @@
         <v>12423</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>525</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -9126,13 +9099,13 @@
         <v>14261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>635</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9147,13 +9120,13 @@
         <v>5801</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>634</v>
+        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -9162,13 +9135,13 @@
         <v>17804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -9177,13 +9150,13 @@
         <v>23605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,13 +9171,13 @@
         <v>78676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>644</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>642</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -9213,13 +9186,13 @@
         <v>111129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -9228,13 +9201,13 @@
         <v>189805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,13 +9275,13 @@
         <v>4537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>650</v>
+        <v>235</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -9317,13 +9290,13 @@
         <v>4294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>653</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -9332,13 +9305,13 @@
         <v>8831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9353,13 +9326,13 @@
         <v>3316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -9368,13 +9341,13 @@
         <v>8630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -9386,10 +9359,10 @@
         <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>661</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9404,13 +9377,13 @@
         <v>69748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>664</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
@@ -9419,13 +9392,13 @@
         <v>82027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -9434,13 +9407,13 @@
         <v>151775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,7 +9469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9508,13 +9481,13 @@
         <v>581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -9523,13 +9496,13 @@
         <v>4793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>674</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -9538,13 +9511,13 @@
         <v>5375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>678</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9559,13 +9532,13 @@
         <v>4563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>681</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -9574,13 +9547,13 @@
         <v>6781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>679</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -9589,13 +9562,13 @@
         <v>11344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>681</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>683</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9610,13 +9583,13 @@
         <v>73661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -9625,13 +9598,13 @@
         <v>98881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M18" s="7">
         <v>339</v>
@@ -9640,13 +9613,13 @@
         <v>172542</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>691</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>692</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,7 +9693,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>693</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9729,13 +9702,13 @@
         <v>1370</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -9744,13 +9717,13 @@
         <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9765,13 +9738,13 @@
         <v>4430</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -9780,13 +9753,13 @@
         <v>8817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>406</v>
+        <v>700</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -9795,13 +9768,13 @@
         <v>13248</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9816,13 +9789,13 @@
         <v>33901</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -9831,13 +9804,13 @@
         <v>55292</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -9846,13 +9819,13 @@
         <v>89194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>715</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9920,13 +9893,13 @@
         <v>1998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>714</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>715</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -9935,13 +9908,13 @@
         <v>5552</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -9974,10 +9947,10 @@
         <v>722</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>592</v>
+        <v>723</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -9986,13 +9959,13 @@
         <v>5152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -10001,13 +9974,13 @@
         <v>7795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>728</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10025,10 +9998,10 @@
         <v>729</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>730</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>731</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
@@ -10037,13 +10010,13 @@
         <v>59149</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="M26" s="7">
         <v>272</v>
@@ -10052,10 +10025,10 @@
         <v>117693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>733</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>734</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>735</v>
@@ -10114,7 +10087,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10141,7 +10114,7 @@
         <v>9123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>720</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>737</v>
@@ -10156,13 +10129,13 @@
         <v>9123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>739</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10177,13 +10150,13 @@
         <v>5937</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -10192,13 +10165,13 @@
         <v>10308</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -10210,10 +10183,10 @@
         <v>722</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10228,13 +10201,13 @@
         <v>124903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>746</v>
+        <v>224</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -10243,13 +10216,13 @@
         <v>238757</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
@@ -10258,13 +10231,13 @@
         <v>363660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>753</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,7 +10293,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10338,7 +10311,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>387</v>
+        <v>750</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10347,13 +10320,13 @@
         <v>1564</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>49</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -10362,13 +10335,13 @@
         <v>1564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10383,13 +10356,13 @@
         <v>1573</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>737</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>334</v>
+        <v>753</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -10398,13 +10371,13 @@
         <v>13490</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>759</v>
+        <v>192</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -10413,13 +10386,13 @@
         <v>15063</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>386</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>547</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10434,13 +10407,13 @@
         <v>168354</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H34" s="7">
         <v>324</v>
@@ -10449,13 +10422,13 @@
         <v>207988</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M34" s="7">
         <v>556</v>
@@ -10464,13 +10437,13 @@
         <v>376342</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>768</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10538,10 +10511,10 @@
         <v>8953</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>425</v>
@@ -10553,13 +10526,13 @@
         <v>42277</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>771</v>
+        <v>589</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -10568,13 +10541,13 @@
         <v>51230</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>774</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10589,13 +10562,13 @@
         <v>33363</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
@@ -10604,13 +10577,13 @@
         <v>84569</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="M37" s="7">
         <v>206</v>
@@ -10619,13 +10592,13 @@
         <v>117931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>781</v>
+        <v>384</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10640,13 +10613,13 @@
         <v>654605</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>783</v>
+        <v>125</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="H38" s="7">
         <v>1478</v>
@@ -10655,13 +10628,13 @@
         <v>898703</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="M38" s="7">
         <v>2440</v>
@@ -10670,13 +10643,13 @@
         <v>1553308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>789</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10732,7 +10705,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC53AE5B-285D-4327-BD54-0BFBAC9BA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939B6046-1255-44AF-8CF8-41C02D2E797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40023F2D-2EBD-49B3-A2FD-79EEB375E121}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B13E857B-10AB-4105-BAD0-94B0608306B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="793">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -740,7 +740,61 @@
     <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>6,88%</t>
@@ -896,1492 +950,1474 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667E0E29-248E-4F6C-AD11-7790ECE675DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF714E-9849-4B74-8DBB-33ED51F4042A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4783,7 +4819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C67F9D-4A96-4861-866F-9FD75260347D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFBC002-41D8-413D-AE43-86728E6CBEDD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4901,43 +4937,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1907</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3381</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5288</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,43 +4988,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1045</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8344</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9388</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,43 +5039,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>41330</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="7">
+        <v>37169</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N6" s="7">
+        <v>78499</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,43 +5090,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5149,13 @@
         <v>5446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5104,13 +5164,13 @@
         <v>6699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5119,13 +5179,13 @@
         <v>12145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5200,13 @@
         <v>5424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5155,13 +5215,13 @@
         <v>12889</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5170,13 +5230,13 @@
         <v>18313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5251,13 @@
         <v>68333</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5206,13 +5266,13 @@
         <v>82505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -5221,13 +5281,13 @@
         <v>150838</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5355,13 @@
         <v>5057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5310,13 +5370,13 @@
         <v>8725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5325,13 +5385,13 @@
         <v>13783</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5412,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5361,13 +5421,13 @@
         <v>8447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5376,13 +5436,13 @@
         <v>9495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5457,13 @@
         <v>49636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5412,13 +5472,13 @@
         <v>62796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5427,13 +5487,13 @@
         <v>112432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,49 +5555,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5019</v>
+        <v>3112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3211</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="7">
         <v>6</v>
       </c>
-      <c r="I16" s="7">
-        <v>6592</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
       <c r="N16" s="7">
-        <v>11611</v>
+        <v>6323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,49 +5606,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>8772</v>
+        <v>7728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>18206</v>
+        <v>9862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>26979</v>
+        <v>17590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,49 +5657,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>94516</v>
+        <v>53188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I18" s="7">
-        <v>109670</v>
+        <v>72501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="N18" s="7">
-        <v>204187</v>
+        <v>125688</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,10 +5708,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -5663,10 +5723,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -5678,10 +5738,10 @@
         <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -5707,13 +5767,13 @@
         <v>1157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5722,13 +5782,13 @@
         <v>6072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5737,13 +5797,13 @@
         <v>7228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5818,13 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5773,13 +5833,13 @@
         <v>2099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5794,7 +5854,7 @@
         <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5869,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5824,13 +5884,13 @@
         <v>41684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5839,13 +5899,13 @@
         <v>68848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5928,13 +5988,13 @@
         <v>5387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5943,13 +6003,13 @@
         <v>7531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6024,13 @@
         <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5979,13 +6039,13 @@
         <v>8446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5994,13 +6054,13 @@
         <v>10596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6075,13 @@
         <v>47462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6030,13 +6090,13 @@
         <v>56380</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>102</v>
@@ -6045,10 +6105,10 @@
         <v>103842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>229</v>
@@ -6119,13 +6179,13 @@
         <v>3058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6134,13 +6194,13 @@
         <v>6938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6149,13 +6209,13 @@
         <v>9995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6230,13 @@
         <v>3039</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6185,13 +6245,13 @@
         <v>15507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -6200,13 +6260,13 @@
         <v>18546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6281,13 @@
         <v>106166</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H30" s="7">
         <v>109</v>
@@ -6236,13 +6296,13 @@
         <v>119518</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6251,13 +6311,13 @@
         <v>225684</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6385,13 @@
         <v>1154</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6340,13 +6400,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6355,13 +6415,13 @@
         <v>6709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6436,13 @@
         <v>6717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6391,13 +6451,13 @@
         <v>10140</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -6406,13 +6466,13 @@
         <v>16857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>217</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6487,13 @@
         <v>112880</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -6442,13 +6502,13 @@
         <v>148722</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="M34" s="7">
         <v>237</v>
@@ -6457,13 +6517,13 @@
         <v>261603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,10 +6594,10 @@
         <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -6546,13 +6606,13 @@
         <v>45967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -6561,13 +6621,13 @@
         <v>69002</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,10 +6645,10 @@
         <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -6597,13 +6657,13 @@
         <v>75733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -6612,13 +6672,13 @@
         <v>106177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6693,13 @@
         <v>506158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="H38" s="7">
         <v>583</v>
@@ -6648,13 +6708,13 @@
         <v>621275</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="M38" s="7">
         <v>1041</v>
@@ -6663,13 +6723,13 @@
         <v>1127433</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B102B7-97F3-4243-8A3B-9E9722A1668E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2360059-3042-45A7-B879-9803B1E451C7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6766,7 +6826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6876,10 +6936,10 @@
         <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6888,13 +6948,13 @@
         <v>3417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6906,10 +6966,10 @@
         <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6984,13 @@
         <v>4100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6939,13 +6999,13 @@
         <v>6397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6954,13 +7014,13 @@
         <v>10497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +7035,13 @@
         <v>32364</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -6990,13 +7050,13 @@
         <v>39577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -7005,13 +7065,13 @@
         <v>71942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7094,13 +7154,13 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -7109,13 +7169,13 @@
         <v>3972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7190,13 @@
         <v>2503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7145,13 +7205,13 @@
         <v>6713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7160,13 +7220,13 @@
         <v>9215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7241,13 @@
         <v>84792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -7196,13 +7256,13 @@
         <v>104543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -7211,13 +7271,13 @@
         <v>189335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7300,13 +7360,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7315,13 +7375,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7396,13 @@
         <v>3639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7351,13 +7411,13 @@
         <v>2467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -7366,13 +7426,13 @@
         <v>6105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7447,13 @@
         <v>59907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -7402,13 +7462,13 @@
         <v>72953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7417,13 +7477,13 @@
         <v>132860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7551,13 @@
         <v>845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7506,13 +7566,13 @@
         <v>3422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7521,13 +7581,13 @@
         <v>4267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7602,13 @@
         <v>2610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7557,13 +7617,13 @@
         <v>3527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7572,13 +7632,13 @@
         <v>6137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7653,13 @@
         <v>61257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7608,13 +7668,13 @@
         <v>84625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -7623,13 +7683,13 @@
         <v>145882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7718,7 +7778,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7727,7 +7787,7 @@
         <v>909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -7754,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7763,13 +7823,13 @@
         <v>5440</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7778,13 +7838,13 @@
         <v>5440</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,7 +7862,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>35</v>
@@ -7817,10 +7877,10 @@
         <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7829,10 +7889,10 @@
         <v>86263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>178</v>
@@ -7903,13 +7963,13 @@
         <v>4351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7918,10 +7978,10 @@
         <v>5834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>122</v>
@@ -7933,13 +7993,13 @@
         <v>10185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +8014,13 @@
         <v>2444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7969,13 +8029,13 @@
         <v>2453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7984,13 +8044,13 @@
         <v>4897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8065,13 @@
         <v>41651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -8020,13 +8080,13 @@
         <v>59101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -8035,13 +8095,13 @@
         <v>100752</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8175,7 @@
         <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -8124,13 +8184,13 @@
         <v>6670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -8139,13 +8199,13 @@
         <v>9385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8220,13 @@
         <v>4790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8175,13 +8235,13 @@
         <v>15560</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -8190,13 +8250,13 @@
         <v>20350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8271,13 @@
         <v>104679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -8226,13 +8286,13 @@
         <v>125396</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>208</v>
@@ -8241,13 +8301,13 @@
         <v>230075</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,7 +8381,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8336,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8351,7 +8411,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8366,7 +8426,7 @@
         <v>867</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
@@ -8381,13 +8441,13 @@
         <v>6054</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>300</v>
+        <v>586</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -8396,13 +8456,13 @@
         <v>6921</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8417,10 +8477,10 @@
         <v>133301</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>29</v>
@@ -8432,13 +8492,13 @@
         <v>170243</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="M34" s="7">
         <v>277</v>
@@ -8447,13 +8507,13 @@
         <v>303544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8581,13 @@
         <v>10343</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -8536,13 +8596,13 @@
         <v>28701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -8551,13 +8611,13 @@
         <v>39044</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,10 +8635,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>592</v>
+        <v>310</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8590,10 +8650,10 @@
         <v>169</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -8602,13 +8662,13 @@
         <v>69562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,13 +8683,13 @@
         <v>560033</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="H38" s="7">
         <v>594</v>
@@ -8638,13 +8698,13 @@
         <v>700620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="M38" s="7">
         <v>1185</v>
@@ -8653,13 +8713,13 @@
         <v>1260653</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5C1E0E-1819-41D0-AD46-74F7F912B0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2E41A-32F5-4FE6-94B1-6C7FA6030E68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8756,7 +8816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8869,37 +8929,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>608</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>610</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,46 +8971,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>5100</v>
+        <v>5441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>13586</v>
+        <v>13740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>18685</v>
+        <v>19181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,46 +9022,46 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>46820</v>
+        <v>50460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>45478</v>
+        <v>46502</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="M6" s="7">
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>92298</v>
+        <v>96961</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,7 +9073,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -9028,7 +9088,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -9043,7 +9103,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -9066,46 +9126,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1837</v>
+        <v>1690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>631</v>
+        <v>530</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>12423</v>
+        <v>10817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>525</v>
+        <v>643</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>633</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>14261</v>
+        <v>12507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,46 +9177,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5801</v>
+        <v>5344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>637</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>648</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>17804</v>
+        <v>16153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>640</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>23605</v>
+        <v>21497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>653</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,46 +9228,46 @@
         <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>78676</v>
+        <v>73675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>657</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
       </c>
       <c r="I10" s="7">
-        <v>111129</v>
+        <v>102022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
       </c>
       <c r="N10" s="7">
-        <v>189805</v>
+        <v>175696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,7 +9279,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>35</v>
@@ -9234,7 +9294,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -9249,7 +9309,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -9272,46 +9332,46 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4537</v>
+        <v>4248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>665</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>652</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>4294</v>
+        <v>3919</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>8831</v>
+        <v>8167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9323,46 +9383,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>3316</v>
+        <v>3122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>550</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>8630</v>
+        <v>7768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>659</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>11946</v>
+        <v>10890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>662</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9374,46 +9434,46 @@
         <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>69748</v>
+        <v>66120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>665</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
       </c>
       <c r="I14" s="7">
-        <v>82027</v>
+        <v>75738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
       </c>
       <c r="N14" s="7">
-        <v>151775</v>
+        <v>141858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9425,7 +9485,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -9440,7 +9500,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -9455,7 +9515,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -9478,46 +9538,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>4793</v>
+        <v>4468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>674</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>675</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>5375</v>
+        <v>5020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>678</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9529,46 +9589,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>4563</v>
+        <v>4263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>6781</v>
+        <v>6349</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>11344</v>
+        <v>10612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>693</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9580,46 +9640,46 @@
         <v>110</v>
       </c>
       <c r="D18" s="7">
-        <v>73661</v>
+        <v>69853</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
       </c>
       <c r="I18" s="7">
-        <v>98881</v>
+        <v>92819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="M18" s="7">
         <v>339</v>
       </c>
       <c r="N18" s="7">
-        <v>172542</v>
+        <v>162671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>702</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9631,7 +9691,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -9646,7 +9706,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -9661,7 +9721,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -9693,37 +9753,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1370</v>
+        <v>1207</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>694</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1370</v>
+        <v>1207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>705</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9735,46 +9795,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>4430</v>
+        <v>3994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
       </c>
       <c r="I21" s="7">
-        <v>8817</v>
+        <v>7862</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
       </c>
       <c r="N21" s="7">
-        <v>13248</v>
+        <v>11856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9786,46 +9846,46 @@
         <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>33901</v>
+        <v>30822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>707</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
       </c>
       <c r="I22" s="7">
-        <v>55292</v>
+        <v>50177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
       </c>
       <c r="N22" s="7">
-        <v>89194</v>
+        <v>80999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9837,7 +9897,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -9852,7 +9912,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -9867,7 +9927,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -9890,46 +9950,46 @@
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>1998</v>
+        <v>1903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>5552</v>
+        <v>5132</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>716</v>
+        <v>240</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>7549</v>
+        <v>7036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>721</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9941,46 +10001,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>2642</v>
+        <v>2512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>722</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>5152</v>
+        <v>4834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>7795</v>
+        <v>7346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9992,46 +10052,46 @@
         <v>124</v>
       </c>
       <c r="D26" s="7">
-        <v>58543</v>
+        <v>55845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>738</v>
       </c>
       <c r="H26" s="7">
         <v>148</v>
       </c>
       <c r="I26" s="7">
-        <v>59149</v>
+        <v>55292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="M26" s="7">
         <v>272</v>
       </c>
       <c r="N26" s="7">
-        <v>117693</v>
+        <v>111137</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>735</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10043,7 +10103,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>35</v>
@@ -10058,7 +10118,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>35</v>
@@ -10073,7 +10133,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -10105,37 +10165,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>9123</v>
+        <v>7962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
       </c>
       <c r="N28" s="7">
-        <v>9123</v>
+        <v>7962</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>146</v>
+        <v>746</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,46 +10207,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>5937</v>
+        <v>5507</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
       </c>
       <c r="I29" s="7">
-        <v>10308</v>
+        <v>9361</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>750</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>751</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>741</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>16245</v>
+        <v>14868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>742</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10198,46 +10258,46 @@
         <v>161</v>
       </c>
       <c r="D30" s="7">
-        <v>124903</v>
+        <v>117747</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>224</v>
+        <v>754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
       </c>
       <c r="I30" s="7">
-        <v>238757</v>
+        <v>321266</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="M30" s="7">
         <v>372</v>
       </c>
       <c r="N30" s="7">
-        <v>363660</v>
+        <v>439014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>390</v>
+        <v>760</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,7 +10309,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>35</v>
@@ -10264,7 +10324,7 @@
         <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>258188</v>
+        <v>338589</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>35</v>
@@ -10279,7 +10339,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>389028</v>
+        <v>461844</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>35</v>
@@ -10311,37 +10371,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1564</v>
+        <v>1257</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>49</v>
+        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>1564</v>
+        <v>1257</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>742</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10353,46 +10413,46 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>1573</v>
+        <v>1399</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>737</v>
+        <v>588</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
       </c>
       <c r="I33" s="7">
-        <v>13490</v>
+        <v>10127</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>754</v>
+        <v>624</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>192</v>
+        <v>767</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
       </c>
       <c r="N33" s="7">
-        <v>15063</v>
+        <v>11527</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>728</v>
+        <v>464</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>768</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10404,46 +10464,46 @@
         <v>232</v>
       </c>
       <c r="D34" s="7">
-        <v>168354</v>
+        <v>145681</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>756</v>
+        <v>597</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="H34" s="7">
         <v>324</v>
       </c>
       <c r="I34" s="7">
-        <v>207988</v>
+        <v>175258</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="M34" s="7">
         <v>556</v>
       </c>
       <c r="N34" s="7">
-        <v>376342</v>
+        <v>320939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>762</v>
+        <v>554</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,7 +10515,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>35</v>
@@ -10470,7 +10530,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>35</v>
@@ -10485,7 +10545,7 @@
         <v>578</v>
       </c>
       <c r="N35" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>35</v>
@@ -10508,46 +10568,46 @@
         <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>8953</v>
+        <v>8394</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>764</v>
+        <v>398</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>425</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>72</v>
       </c>
       <c r="I36" s="7">
-        <v>42277</v>
+        <v>37930</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>778</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>589</v>
+        <v>68</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>766</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
       </c>
       <c r="N36" s="7">
-        <v>51230</v>
+        <v>46324</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>696</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10559,46 +10619,46 @@
         <v>50</v>
       </c>
       <c r="D37" s="7">
-        <v>33363</v>
+        <v>31582</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>768</v>
+        <v>303</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>769</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
       </c>
       <c r="I37" s="7">
-        <v>84569</v>
+        <v>76194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="M37" s="7">
         <v>206</v>
       </c>
       <c r="N37" s="7">
-        <v>117931</v>
+        <v>107776</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>784</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10610,46 +10670,46 @@
         <v>962</v>
       </c>
       <c r="D38" s="7">
-        <v>654605</v>
+        <v>610202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>125</v>
+        <v>786</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="H38" s="7">
         <v>1478</v>
       </c>
       <c r="I38" s="7">
-        <v>898703</v>
+        <v>919073</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="M38" s="7">
         <v>2440</v>
       </c>
       <c r="N38" s="7">
-        <v>1553308</v>
+        <v>1529275</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>622</v>
+        <v>792</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>780</v>
+        <v>174</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>602</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10661,7 +10721,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>35</v>
@@ -10676,7 +10736,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025548</v>
+        <v>1033197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>35</v>
@@ -10691,7 +10751,7 @@
         <v>2733</v>
       </c>
       <c r="N39" s="7">
-        <v>1722469</v>
+        <v>1683375</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>35</v>
